--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACF/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACF/20/seed1/result_data_RandomForest.xlsx
@@ -491,24 +491,24 @@
         <v>-6.85</v>
       </c>
       <c r="E3" t="n">
-        <v>12.43609999999999</v>
+        <v>12.48389999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.19250000000002</v>
+        <v>-21.29150000000002</v>
       </c>
       <c r="B4" t="n">
         <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-11.2971</v>
+        <v>-11.33359999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>12.29670000000001</v>
+        <v>12.30670000000001</v>
       </c>
     </row>
     <row r="5">
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-14.444</v>
+        <v>-14.43640000000001</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -530,13 +530,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-20.08699999999998</v>
+        <v>-20.17369999999999</v>
       </c>
       <c r="B6" t="n">
         <v>7.87</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.51409999999998</v>
+        <v>-11.47549999999999</v>
       </c>
       <c r="D6" t="n">
         <v>-8.59</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.44740000000001</v>
+        <v>-21.18360000000002</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -564,13 +564,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-20.5799</v>
+        <v>-20.55</v>
       </c>
       <c r="B8" t="n">
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.243</v>
+        <v>-12.2425</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>12.9678</v>
+        <v>12.53470000000001</v>
       </c>
     </row>
     <row r="10">
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.3226</v>
+        <v>13.08219999999999</v>
       </c>
     </row>
     <row r="12">
@@ -678,7 +678,7 @@
         <v>-7.97</v>
       </c>
       <c r="E14" t="n">
-        <v>13.67630000000001</v>
+        <v>13.77640000000001</v>
       </c>
     </row>
     <row r="15">
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-20.19799999999999</v>
+        <v>-20.319</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.3085</v>
+        <v>-12.2239</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
@@ -746,7 +746,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>12.9313</v>
+        <v>13.10709999999999</v>
       </c>
     </row>
     <row r="19">
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.68370000000002</v>
+        <v>-22.83410000000002</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.50949999999999</v>
+        <v>-20.43829999999999</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -808,7 +808,7 @@
         <v>4.26</v>
       </c>
       <c r="C22" t="n">
-        <v>-11.05109999999999</v>
+        <v>-11.02379999999999</v>
       </c>
       <c r="D22" t="n">
         <v>-5.14</v>
@@ -865,7 +865,7 @@
         <v>-7.71</v>
       </c>
       <c r="E25" t="n">
-        <v>13.07989999999999</v>
+        <v>12.97369999999999</v>
       </c>
     </row>
   </sheetData>
